--- a/test/reader_test/products1.xlsx
+++ b/test/reader_test/products1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernstvorsteveld/git/dotnet/spreadsheet-reader/test/configuration_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernstvorsteveld/git/dotnet/spreadsheet-reader/test/reader_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55FDADCB-F238-4346-AB5C-D7447B7E0D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0F035A-FFA1-7D41-9BF9-7E67E7B438FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2140" yWindow="1600" windowWidth="27240" windowHeight="16440" xr2:uid="{3DA54F20-598F-4E4A-8E5D-79CB6B7B0683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="53">
   <si>
     <t>SupplierNumber</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Q4</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -225,8 +228,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,7 +548,7 @@
   <dimension ref="A1:AU17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD17"/>
+      <selection activeCell="J2" sqref="J2:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,17 +715,17 @@
       <c r="F2">
         <v>1200</v>
       </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
@@ -803,17 +807,17 @@
       <c r="F3">
         <v>1200</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
         <v>47</v>
@@ -895,17 +899,17 @@
       <c r="F4">
         <v>1200</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
         <v>47</v>
@@ -987,17 +991,17 @@
       <c r="F5">
         <v>1200</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
         <v>47</v>
@@ -1079,17 +1083,17 @@
       <c r="F6">
         <v>1200</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
         <v>47</v>
@@ -1171,17 +1175,17 @@
       <c r="F7">
         <v>1200</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
         <v>47</v>
@@ -1263,17 +1267,17 @@
       <c r="F8">
         <v>1200</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
       </c>
       <c r="I8" t="s">
         <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s">
         <v>47</v>
@@ -1355,17 +1359,17 @@
       <c r="F9">
         <v>1200</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
       </c>
       <c r="I9" t="s">
         <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
@@ -1447,17 +1451,17 @@
       <c r="F10">
         <v>1200</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
         <v>47</v>
@@ -1539,17 +1543,17 @@
       <c r="F11">
         <v>1200</v>
       </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s">
         <v>47</v>
@@ -1631,17 +1635,17 @@
       <c r="F12">
         <v>1200</v>
       </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
         <v>47</v>
@@ -1723,17 +1727,17 @@
       <c r="F13">
         <v>1200</v>
       </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
       </c>
       <c r="I13" t="s">
         <v>47</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s">
         <v>47</v>
@@ -1815,17 +1819,17 @@
       <c r="F14">
         <v>1200</v>
       </c>
-      <c r="G14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
       </c>
       <c r="I14" t="s">
         <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
@@ -1907,17 +1911,17 @@
       <c r="F15">
         <v>1200</v>
       </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
       </c>
       <c r="I15" t="s">
         <v>47</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s">
         <v>47</v>
@@ -1999,17 +2003,17 @@
       <c r="F16">
         <v>1200</v>
       </c>
-      <c r="G16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
       </c>
       <c r="I16" t="s">
         <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
@@ -2091,17 +2095,17 @@
       <c r="F17">
         <v>1200</v>
       </c>
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
       </c>
       <c r="I17" t="s">
         <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s">
         <v>47</v>

--- a/test/reader_test/products1.xlsx
+++ b/test/reader_test/products1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernstvorsteveld/git/dotnet/spreadsheet-reader/test/reader_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0F035A-FFA1-7D41-9BF9-7E67E7B438FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D20C281-597F-0943-ACC9-5271D079E5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2140" yWindow="1600" windowWidth="27240" windowHeight="16440" xr2:uid="{3DA54F20-598F-4E4A-8E5D-79CB6B7B0683}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:AU17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J17"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
